--- a/satd_issue_dataset_Python_tsuji.xlsx
+++ b/satd_issue_dataset_Python_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF78587-28A3-594D-812E-84362E821368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC07AA82-7C42-784E-A08E-92C55E2F42D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="316">
   <si>
     <t>Issue</t>
   </si>
@@ -829,6 +829,261 @@
   <si>
     <t>[Content]ブラックコードフォーマッタを使用
 [Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pre-commit を使用してコード チェックを管理する
+[Class]ツールの使用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アダプタごとに統合テストを別々のサブディレクトリに分割する
+[Class]ディレクトリの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]setup.py の静的部分を setup.cfg に移動
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]mypyすべてのソース ファイルで実行されるわけではありません
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]test_sighup_postgres不安定な統合テストを修正 
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tests</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]各統合テスト スイートの前にプリフライト テストを実行する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定なトラッキング統合テストを修正
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]自動テストの改善
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]自動テスト中にフィクスチャまたはジェネレータを使用してノード オブジェクトを構築する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]イベント追跡統合テストをオンにする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スモーク テスト スイートを作成する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]自動テストの命名規則を更新する 
+[Class]テストの名前変更</t>
+    <rPh sb="37" eb="41">
+      <t xml:space="preserve">ナマエヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト用のストレージ アダプターを作成する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]v1 スキーマのコードのクリーンアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古い統合テスト スキーマを自動的に削除する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Python3.9 単体テストの問題に対処し、デフォルトでオンにする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Redshift 統合テストが早期に終了することを確認する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストカバレッジの測定を開始
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定な BigQuery テスト
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストで発生した非推奨の警告を調査して修正する
+[Class]警告の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]test_parse_manifest.py の未定義の名前 'source_file'
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]どこでも Mypy をオンにする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨の unittest エイリアスが Python 3.11 で削除されました
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]py36 サポートを削除
+[Class]サポートの削除</t>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Windows ログファイルのスレッド競合を調査する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Github Actions がタイムアウトしません
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]read_filesステートレス/関数型にする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]clsクラスを明示的に参照する代わりにクラスメソッドで使用する
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テキスト vs JSON およびファイル vs CLI ログ
+[Class]ログの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]node_status レポートのクリーンアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]dbt フロント エンドを分割して多くの利点を得る
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スレッド モデルにより、スレッド内の例外が意味のある方法でログに到達できなくなる
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]get_response は常に AdapterResponse を返さなければならない
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ロギングのシリアル化: 一貫性のためにマシュマロを使用
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Python 3.10 との互換性 (ログを埋める DeprecationWarning)
+[Class]互換性の問題</t>
+    <rPh sb="62" eb="65">
+      <t xml:space="preserve">ゴカンセイノ </t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Django 1.11 との互換性
+[Class]互換性の問題</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クラスベースのビューを削除
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]URLローダーをドロップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CancelOrderForm をリファクタリングして CancelGroupForm を呼び出さないようにする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]要件を確認し、更新する必要があるものを決定します
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Bootstrap を最新バージョンにアップグレードする
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フロントエンドの依存関係をアップグレードする
+[Class]依存関係の管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]BabelDjango のアップグレード
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべての Python ファイルにunicode_literals将来のインポートが含まれていることを確認してください
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]email_confirmation_messageテンプレートが何かに使用されているかを把握する
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「受注品目」の名称を「受注明細」に変更
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GraphQL スタックをバージョン 2.x にアップグレードする
+[Class]ツールのアップグレード</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1796,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1861,8 +2116,11 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -1872,8 +2130,11 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>265</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -1883,8 +2144,11 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>265</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -1894,8 +2158,11 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>265</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42">
@@ -1905,8 +2172,11 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>273</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -1916,8 +2186,11 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -1927,8 +2200,11 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>273</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -1938,19 +2214,25 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="42">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="63">
       <c r="A12">
         <v>3615</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -1960,8 +2242,11 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42">
@@ -1971,8 +2256,11 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -1982,8 +2270,11 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>273</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -1993,8 +2284,11 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>273</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -2004,8 +2298,11 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="s">
+        <v>265</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -2015,8 +2312,11 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
+      <c r="C18" t="s">
+        <v>273</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42">
@@ -2026,8 +2326,11 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>273</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -2037,8 +2340,11 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>273</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -2048,8 +2354,11 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>273</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -2059,8 +2368,11 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="s">
+        <v>273</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -2070,8 +2382,11 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="s">
+        <v>265</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -2081,8 +2396,11 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
+      <c r="C24" t="s">
+        <v>273</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -2092,8 +2410,11 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -2103,8 +2424,14 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
+      <c r="C26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" t="s">
+        <v>268</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -2114,8 +2441,11 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42">
@@ -2125,8 +2455,11 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
+      <c r="C28" t="s">
+        <v>273</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -2136,8 +2469,11 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
+      <c r="C29" t="s">
+        <v>273</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -2147,8 +2483,11 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -2158,8 +2497,11 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -2169,8 +2511,11 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -2180,8 +2525,11 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
+      <c r="C33" t="s">
+        <v>265</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42">
@@ -2191,19 +2539,25 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
+      <c r="C34" t="s">
+        <v>265</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="42">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="63">
       <c r="A35">
         <v>4476</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
+      <c r="C35" t="s">
+        <v>265</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42">
@@ -2213,8 +2567,11 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
+      <c r="C36" t="s">
+        <v>265</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -2224,8 +2581,11 @@
       <c r="B37" t="s">
         <v>37</v>
       </c>
+      <c r="C37" t="s">
+        <v>265</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -2235,8 +2595,11 @@
       <c r="B38" t="s">
         <v>38</v>
       </c>
+      <c r="C38" t="s">
+        <v>268</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -2246,8 +2609,11 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
+      <c r="C39" t="s">
+        <v>268</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -2257,8 +2623,11 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
+      <c r="C40" t="s">
+        <v>265</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -2268,19 +2637,25 @@
       <c r="B41" t="s">
         <v>41</v>
       </c>
+      <c r="C41" t="s">
+        <v>265</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="42">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="63">
       <c r="A42">
         <v>894</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
+      <c r="C42" t="s">
+        <v>265</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -2290,8 +2665,11 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
+      <c r="C43" t="s">
+        <v>268</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -2301,8 +2679,11 @@
       <c r="B44" t="s">
         <v>44</v>
       </c>
+      <c r="C44" t="s">
+        <v>268</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -2312,8 +2693,11 @@
       <c r="B45" t="s">
         <v>45</v>
       </c>
+      <c r="C45" t="s">
+        <v>265</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -2323,30 +2707,39 @@
       <c r="B46" t="s">
         <v>46</v>
       </c>
+      <c r="C46" t="s">
+        <v>268</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="42">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="63">
       <c r="A47">
         <v>1283</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
+      <c r="C47" t="s">
+        <v>265</v>
+      </c>
       <c r="F47" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="42">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="63">
       <c r="A48">
         <v>1287</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
+      <c r="C48" t="s">
+        <v>265</v>
+      </c>
       <c r="F48" s="2" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -2356,8 +2749,11 @@
       <c r="B49" t="s">
         <v>49</v>
       </c>
+      <c r="C49" t="s">
+        <v>265</v>
+      </c>
       <c r="F49" s="2" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -2367,8 +2763,11 @@
       <c r="B50" t="s">
         <v>50</v>
       </c>
+      <c r="C50" t="s">
+        <v>268</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">

--- a/satd_issue_dataset_Python_tsuji.xlsx
+++ b/satd_issue_dataset_Python_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC07AA82-7C42-784E-A08E-92C55E2F42D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9385B805-3C4E-1D4C-AFDF-CCAC4A564156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="370">
   <si>
     <t>Issue</t>
   </si>
@@ -1084,6 +1084,290 @@
   <si>
     <t>[Content]GraphQL スタックをバージョン 2.x にアップグレードする
 [Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]favicons-webpack-plugin の置き換えを検討してください
+[Class]ツールの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「注文済みアイテム」の名前を「注文明細」に変更します
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バウチャーを 1 つの製品のみに適用する場合は、select2 を使用します
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Django 2.0 との互換性
+[Class]互換性の問題</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Python 2 のサポートを終了
+[Class]サポートの終了</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]注文管理に関連するリファクタリング ロジック
+[Class]機能の移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]URL の国際化
+[Class]機能の改善</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボードに成功メッセージを表示するリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]モデルから冗長な名前を削除する
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]未使用の「address_short.html」ファイルを削除
+[Class]不要なファイルの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]注文状況フィールドを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]django-bootstrap-4 を使用する
+[Class]ツールの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テンプレートでの住所の印刷方法を統一する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]order/success.html を使用したことがありませんか?
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バックエンドの依存関係をバンプする
+[Class]依存関係の改善</t>
+    <rPh sb="34" eb="38">
+      <t xml:space="preserve">イソンカンケイノ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボードで作成ビューと編集ビューを分離
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]可能な sort_by フィールドをカテゴリページに渡すリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AJAX Select2 フィールドをダッシュ​​ボードに移動
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WeasyPrint の更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ドロップ Satchless API
+[Class]不要なAPIの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コード スタイル エラーを修正する 
+[Class]コードスタイルの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Code Style</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボード ロジックの一部のテストは、/tests/dashboad 以外のダッシュボード以外のテストと混在している
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メニューテストの対象範囲を拡大
+[Class]テストの改善</t>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボード製品のテスト範囲を拡大
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボードの注文テスト範囲を拡大
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストが完了するまでに時間がかかる
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>テストのパフォーマンス改善</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ページネーション: バックエンド実装の改善
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボード 2.0: redux をドロップ
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テンプレートの命名を統一する
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バンプ グラフェンとグラフェン ジャンゴ バージョン
+[Class]ライブラリのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]開発要件ファイルの改善
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボード/templatetags/utils.py 使用 __future__
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Docker-compose は UWSGI を使用すべきではありません
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ストーリーブックの作成に時間がかかりすぎる
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Django 2.1 との互換性
+[Class]互換性の問題</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]開発には非現実的な Docker ボリューム
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「default_category」の名前を「category」に変更
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]React コードでクエリ処理を統一する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Dockerfile から副作用を取り除く
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Build</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content].gitattributes を設定して、生成されたファイルをそのようにマークする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TypeScript のコンパイル時に「未使用のローカルなし」フラグを適用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カスタムの Decimal スカラー型を Float に置き換える
+[Class]型の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]壊れた docker-compose
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メール テンプレートで URL を手動で生成する必要がなくなります
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Mutation errors フィールドを [Error] から [Error!] に変更しますか?
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]国コードを受け入れるか返すすべての GraphQL タイプが列挙型を使用していることを確認してください
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GraphQL の配送ゾーンには、GraphQL とはまったく異なるインターフェイスがあります
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]外部パッケージの代わりに Django の JSONField を使用する
+[Class]ツールの使用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API での画像処理のリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]get_total と get_total_price を統合する必要があります
+[Class]機能の統合</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2051,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2061,7 +2345,7 @@
     <col min="2" max="2" width="49.140625" customWidth="1"/>
     <col min="3" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" customWidth="1"/>
+    <col min="6" max="6" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2777,8 +3061,11 @@
       <c r="B51" t="s">
         <v>51</v>
       </c>
+      <c r="C51" t="s">
+        <v>268</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -2788,8 +3075,11 @@
       <c r="B52" t="s">
         <v>52</v>
       </c>
+      <c r="C52" t="s">
+        <v>265</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -2799,8 +3089,11 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
+      <c r="C53" t="s">
+        <v>265</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -2810,8 +3103,11 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
+      <c r="C54" t="s">
+        <v>268</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -2821,8 +3117,11 @@
       <c r="B55" t="s">
         <v>55</v>
       </c>
+      <c r="C55" t="s">
+        <v>268</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -2832,8 +3131,11 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
+      <c r="C56" t="s">
+        <v>265</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -2843,8 +3145,11 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
+      <c r="C57" t="s">
+        <v>265</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -2854,8 +3159,11 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
+      <c r="C58" t="s">
+        <v>265</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -2865,8 +3173,11 @@
       <c r="B59" t="s">
         <v>59</v>
       </c>
+      <c r="C59" t="s">
+        <v>265</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -2876,8 +3187,11 @@
       <c r="B60" t="s">
         <v>60</v>
       </c>
+      <c r="C60" t="s">
+        <v>265</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -2887,8 +3201,11 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
+      <c r="C61" t="s">
+        <v>265</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>263</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -2898,8 +3215,11 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
+      <c r="C62" t="s">
+        <v>268</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -2909,8 +3229,11 @@
       <c r="B63" t="s">
         <v>63</v>
       </c>
+      <c r="C63" t="s">
+        <v>265</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>263</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -2920,8 +3243,11 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
+      <c r="C64" t="s">
+        <v>265</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -2931,8 +3257,11 @@
       <c r="B65" t="s">
         <v>65</v>
       </c>
+      <c r="C65" t="s">
+        <v>265</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>263</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -2942,8 +3271,11 @@
       <c r="B66" t="s">
         <v>66</v>
       </c>
+      <c r="C66" t="s">
+        <v>265</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -2953,8 +3285,11 @@
       <c r="B67" t="s">
         <v>67</v>
       </c>
+      <c r="C67" t="s">
+        <v>265</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -2964,8 +3299,11 @@
       <c r="B68" t="s">
         <v>68</v>
       </c>
+      <c r="C68" t="s">
+        <v>265</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -2975,8 +3313,11 @@
       <c r="B69" t="s">
         <v>69</v>
       </c>
+      <c r="C69" t="s">
+        <v>268</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>263</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -2986,8 +3327,14 @@
       <c r="B70" t="s">
         <v>70</v>
       </c>
+      <c r="C70" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" t="s">
+        <v>268</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -2997,19 +3344,25 @@
       <c r="B71" t="s">
         <v>71</v>
       </c>
+      <c r="C71" t="s">
+        <v>337</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="42">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="63">
       <c r="A72">
         <v>1950</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
+      <c r="C72" t="s">
+        <v>273</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -3019,8 +3372,11 @@
       <c r="B73" t="s">
         <v>73</v>
       </c>
+      <c r="C73" t="s">
+        <v>273</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -3030,8 +3386,11 @@
       <c r="B74" t="s">
         <v>74</v>
       </c>
+      <c r="C74" t="s">
+        <v>273</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>263</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -3041,8 +3400,11 @@
       <c r="B75" t="s">
         <v>75</v>
       </c>
+      <c r="C75" t="s">
+        <v>273</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -3052,8 +3414,17 @@
       <c r="B76" t="s">
         <v>76</v>
       </c>
+      <c r="C76" t="s">
+        <v>273</v>
+      </c>
+      <c r="D76" t="s">
+        <v>343</v>
+      </c>
+      <c r="E76" t="s">
+        <v>344</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -3063,8 +3434,11 @@
       <c r="B77" t="s">
         <v>77</v>
       </c>
+      <c r="C77" t="s">
+        <v>265</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -3074,8 +3448,11 @@
       <c r="B78" t="s">
         <v>78</v>
       </c>
+      <c r="C78" t="s">
+        <v>265</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>263</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -3085,8 +3462,11 @@
       <c r="B79" t="s">
         <v>79</v>
       </c>
+      <c r="C79" t="s">
+        <v>265</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -3096,8 +3476,11 @@
       <c r="B80" t="s">
         <v>80</v>
       </c>
+      <c r="C80" t="s">
+        <v>268</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -3107,8 +3490,11 @@
       <c r="B81" t="s">
         <v>81</v>
       </c>
+      <c r="C81" t="s">
+        <v>265</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -3118,8 +3504,11 @@
       <c r="B82" t="s">
         <v>82</v>
       </c>
+      <c r="C82" t="s">
+        <v>268</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>263</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -3129,8 +3518,11 @@
       <c r="B83" t="s">
         <v>83</v>
       </c>
+      <c r="C83" t="s">
+        <v>265</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>263</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -3140,8 +3532,11 @@
       <c r="B84" t="s">
         <v>84</v>
       </c>
+      <c r="C84" t="s">
+        <v>343</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>263</v>
+        <v>352</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -3151,8 +3546,11 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
+      <c r="C85" t="s">
+        <v>268</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>263</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -3162,8 +3560,11 @@
       <c r="B86" t="s">
         <v>86</v>
       </c>
+      <c r="C86" t="s">
+        <v>265</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -3173,8 +3574,11 @@
       <c r="B87" t="s">
         <v>87</v>
       </c>
+      <c r="C87" t="s">
+        <v>265</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>263</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -3184,8 +3588,11 @@
       <c r="B88" t="s">
         <v>88</v>
       </c>
+      <c r="C88" t="s">
+        <v>265</v>
+      </c>
       <c r="F88" s="2" t="s">
-        <v>263</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -3195,8 +3602,11 @@
       <c r="B89" t="s">
         <v>89</v>
       </c>
+      <c r="C89" t="s">
+        <v>358</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>263</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -3206,8 +3616,11 @@
       <c r="B90" t="s">
         <v>90</v>
       </c>
+      <c r="C90" t="s">
+        <v>265</v>
+      </c>
       <c r="F90" s="2" t="s">
-        <v>263</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -3217,8 +3630,11 @@
       <c r="B91" t="s">
         <v>91</v>
       </c>
+      <c r="C91" t="s">
+        <v>265</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>263</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -3228,8 +3644,11 @@
       <c r="B92" t="s">
         <v>92</v>
       </c>
+      <c r="C92" t="s">
+        <v>265</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>263</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -3239,8 +3658,11 @@
       <c r="B93" t="s">
         <v>93</v>
       </c>
+      <c r="C93" t="s">
+        <v>265</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>263</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -3250,8 +3672,11 @@
       <c r="B94" t="s">
         <v>94</v>
       </c>
+      <c r="C94" t="s">
+        <v>265</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>263</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -3261,30 +3686,39 @@
       <c r="B95" t="s">
         <v>95</v>
       </c>
+      <c r="C95" t="s">
+        <v>265</v>
+      </c>
       <c r="F95" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="42">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="63">
       <c r="A96">
         <v>2748</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
+      <c r="C96" t="s">
+        <v>265</v>
+      </c>
       <c r="F96" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="42">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="63">
       <c r="A97">
         <v>2792</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
       </c>
+      <c r="C97" t="s">
+        <v>265</v>
+      </c>
       <c r="F97" s="2" t="s">
-        <v>263</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="42">
@@ -3294,8 +3728,11 @@
       <c r="B98" t="s">
         <v>98</v>
       </c>
+      <c r="C98" t="s">
+        <v>268</v>
+      </c>
       <c r="F98" s="2" t="s">
-        <v>263</v>
+        <v>367</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="42">
@@ -3305,8 +3742,11 @@
       <c r="B99" t="s">
         <v>99</v>
       </c>
+      <c r="C99" t="s">
+        <v>265</v>
+      </c>
       <c r="F99" s="2" t="s">
-        <v>263</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="42">
@@ -3316,8 +3756,11 @@
       <c r="B100" t="s">
         <v>100</v>
       </c>
+      <c r="C100" t="s">
+        <v>265</v>
+      </c>
       <c r="F100" s="2" t="s">
-        <v>263</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">

--- a/satd_issue_dataset_Python_tsuji.xlsx
+++ b/satd_issue_dataset_Python_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9385B805-3C4E-1D4C-AFDF-CCAC4A564156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19597C4-62CB-5F46-A3D7-797E61EDEF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="422">
   <si>
     <t>Issue</t>
   </si>
@@ -1368,6 +1368,291 @@
   <si>
     <t>[Content]get_total と get_total_price を統合する必要があります
 [Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボード 2.0: JSON ではなく DSL で GraphQL スキーマを維持することを検討してください
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リファクタリングfulfillmentUpdateミューテーション
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]検索プロバイダーのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]下書き注文の注文明細にミューテーションを追加
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボード 2.0: ユーザーが注文明細行の数量を編集できるようにする
+[Class]機能の改善</t>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボード 2.0: 注文メモの追加ボタンを API に接続
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボード 2.0: 配送方法送信ボタンを API に接続
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボード 2.0: onEmailClick を mailto に変更
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]属性の結果ビューをテストしない
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マスターへのコミットだけでなく、すべてのプル リクエストを CircleCI にテストさせる
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいデータをテストする
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GraphQLコレクションのミューテーションが正しい場所でテストされない
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マテリアル UI をバージョン 3.5.x+ にアップグレードする
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古い JS ファイルをきれいに採用する
+[Class]ファイルの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]移行からサムネイルの生成を削除する
+[Class]パフォーマンスの改善，不要なコードの削除</t>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>_x0000_*_x0002__x0005_-_x0002__x000E_4_x0002_</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]django-recaptcha 2.x へのアップグレード
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Django を 2.1.7 にバンプ
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gql API でフィールドを公開する方法をリファクタリングする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カートの名前をチェックアウトに変更
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GraphQL API コードのクリーンアップとメンテナンス
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Payment Intent を使用するようにストライプ統合を書き直す
+[Class]コードの改善，APIの更新</t>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GraphQL クエリとミューテーションで db クエリをカウントするためのテスト
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]オーダー作成機能追加
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スナップショットを使用してテストで API 応答を確認する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]型オブジェクトのリゾルバーをクラスメソッドにリファクタリングする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]deprecatedフィールドからの移行
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]django_celery_results パッケージを削除
+[Class]不要なパッケージの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]utils ファイルをリファクタリングして基本的なロジックを含める
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ReStructuredText の有効性を確認し、スタイルを統一する
+[Class]リンターの使用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>リンターはテスト？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pre-commit に pydocstyle チェックを追加
+[Class]チェックの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コードのチェック，テスト扱い？</t>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">アツカイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]機能ごとに API テストを分割する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]並べ替えロジックを統一する
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]グループごとのミューテーション、タイプ、および一括ミューテーションのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI で mypy を有効にする
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コア モジュールでリテラルをエラーコードとして処理する方法を決定する
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]チェックアウト ミューテーションを保護する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]黒とその他のチェックを最新のものに更新する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Python 3.6 のサポートを終了
+[Class]サポートの終了</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]黒はターゲット バージョン py38 を使用する必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI で postgres バージョンをバンプする (django 3.0)
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいテスト構造を考え出す
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古いメタデータに関連する非推奨のコードを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ProductInput と ProductVariantInput から数量入力を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アサーション エラーのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バンプ mypy
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Menu.json_content フィールドをドロップ
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]description_json を説明フィールドに移行する
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]offline: True が適用されません
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]conda env の org へのアップロードができないようです
+[Class]機能の改善</t>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RuntimeError と CondaRuntimeError のインスタンスを削除
+[Class]不要なコードの削除</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2335,8 +2620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3763,15 +4048,18 @@
         <v>369</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="42">
+    <row r="101" spans="1:6" ht="63">
       <c r="A101">
         <v>2836</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
       </c>
+      <c r="C101" t="s">
+        <v>265</v>
+      </c>
       <c r="F101" s="2" t="s">
-        <v>263</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -3781,8 +4069,11 @@
       <c r="B102" t="s">
         <v>102</v>
       </c>
+      <c r="C102" t="s">
+        <v>265</v>
+      </c>
       <c r="F102" s="2" t="s">
-        <v>263</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -3792,8 +4083,11 @@
       <c r="B103" t="s">
         <v>103</v>
       </c>
+      <c r="C103" t="s">
+        <v>265</v>
+      </c>
       <c r="F103" s="2" t="s">
-        <v>263</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -3803,8 +4097,11 @@
       <c r="B104" t="s">
         <v>104</v>
       </c>
+      <c r="C104" t="s">
+        <v>265</v>
+      </c>
       <c r="F104" s="2" t="s">
-        <v>263</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42">
@@ -3814,8 +4111,11 @@
       <c r="B105" t="s">
         <v>105</v>
       </c>
+      <c r="C105" t="s">
+        <v>265</v>
+      </c>
       <c r="F105" s="2" t="s">
-        <v>263</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="42">
@@ -3825,8 +4125,11 @@
       <c r="B106" t="s">
         <v>106</v>
       </c>
+      <c r="C106" t="s">
+        <v>265</v>
+      </c>
       <c r="F106" s="2" t="s">
-        <v>263</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -3836,8 +4139,11 @@
       <c r="B107" t="s">
         <v>107</v>
       </c>
+      <c r="C107" t="s">
+        <v>265</v>
+      </c>
       <c r="F107" s="2" t="s">
-        <v>263</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="42">
@@ -3847,8 +4153,11 @@
       <c r="B108" t="s">
         <v>108</v>
       </c>
+      <c r="C108" t="s">
+        <v>265</v>
+      </c>
       <c r="F108" s="2" t="s">
-        <v>263</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -3858,19 +4167,25 @@
       <c r="B109" t="s">
         <v>109</v>
       </c>
+      <c r="C109" t="s">
+        <v>273</v>
+      </c>
       <c r="F109" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="42">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="63">
       <c r="A110">
         <v>3207</v>
       </c>
       <c r="B110" t="s">
         <v>110</v>
       </c>
+      <c r="C110" t="s">
+        <v>273</v>
+      </c>
       <c r="F110" s="2" t="s">
-        <v>263</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -3880,8 +4195,11 @@
       <c r="B111" t="s">
         <v>111</v>
       </c>
+      <c r="C111" t="s">
+        <v>273</v>
+      </c>
       <c r="F111" s="2" t="s">
-        <v>263</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="42">
@@ -3891,8 +4209,11 @@
       <c r="B112" t="s">
         <v>112</v>
       </c>
+      <c r="C112" t="s">
+        <v>273</v>
+      </c>
       <c r="F112" s="2" t="s">
-        <v>263</v>
+        <v>381</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -3902,8 +4223,11 @@
       <c r="B113" t="s">
         <v>113</v>
       </c>
+      <c r="C113" t="s">
+        <v>268</v>
+      </c>
       <c r="F113" s="2" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -3913,8 +4237,11 @@
       <c r="B114" t="s">
         <v>114</v>
       </c>
+      <c r="C114" t="s">
+        <v>265</v>
+      </c>
       <c r="F114" s="2" t="s">
-        <v>263</v>
+        <v>383</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -3924,8 +4251,14 @@
       <c r="B115" t="s">
         <v>115</v>
       </c>
+      <c r="C115" t="s">
+        <v>343</v>
+      </c>
+      <c r="D115" t="s">
+        <v>265</v>
+      </c>
       <c r="F115" s="2" t="s">
-        <v>263</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -3935,8 +4268,11 @@
       <c r="B116" t="s">
         <v>116</v>
       </c>
+      <c r="C116" t="s">
+        <v>268</v>
+      </c>
       <c r="F116" s="2" t="s">
-        <v>263</v>
+        <v>385</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42">
@@ -3946,8 +4282,11 @@
       <c r="B117" t="s">
         <v>117</v>
       </c>
+      <c r="C117" t="s">
+        <v>268</v>
+      </c>
       <c r="F117" s="2" t="s">
-        <v>263</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -3957,8 +4296,11 @@
       <c r="B118" t="s">
         <v>118</v>
       </c>
+      <c r="C118" t="s">
+        <v>265</v>
+      </c>
       <c r="F118" s="2" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="42">
@@ -3968,8 +4310,11 @@
       <c r="B119" t="s">
         <v>119</v>
       </c>
+      <c r="C119" t="s">
+        <v>265</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>263</v>
+        <v>388</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -3979,8 +4324,11 @@
       <c r="B120" t="s">
         <v>120</v>
       </c>
+      <c r="C120" t="s">
+        <v>265</v>
+      </c>
       <c r="F120" s="2" t="s">
-        <v>263</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -3990,19 +4338,28 @@
       <c r="B121" t="s">
         <v>121</v>
       </c>
+      <c r="C121" t="s">
+        <v>265</v>
+      </c>
+      <c r="D121" t="s">
+        <v>268</v>
+      </c>
       <c r="F121" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="42">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="63">
       <c r="A122">
         <v>3946</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
       </c>
+      <c r="C122" t="s">
+        <v>273</v>
+      </c>
       <c r="F122" s="2" t="s">
-        <v>263</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -4012,8 +4369,11 @@
       <c r="B123" t="s">
         <v>123</v>
       </c>
+      <c r="C123" t="s">
+        <v>265</v>
+      </c>
       <c r="F123" s="2" t="s">
-        <v>263</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -4023,8 +4383,11 @@
       <c r="B124" t="s">
         <v>124</v>
       </c>
+      <c r="C124" t="s">
+        <v>273</v>
+      </c>
       <c r="F124" s="2" t="s">
-        <v>263</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="42">
@@ -4034,8 +4397,11 @@
       <c r="B125" t="s">
         <v>125</v>
       </c>
+      <c r="C125" t="s">
+        <v>265</v>
+      </c>
       <c r="F125" s="2" t="s">
-        <v>263</v>
+        <v>394</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="42">
@@ -4045,8 +4411,11 @@
       <c r="B126" t="s">
         <v>126</v>
       </c>
+      <c r="C126" t="s">
+        <v>265</v>
+      </c>
       <c r="F126" s="2" t="s">
-        <v>263</v>
+        <v>395</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -4056,8 +4425,11 @@
       <c r="B127" t="s">
         <v>127</v>
       </c>
+      <c r="C127" t="s">
+        <v>265</v>
+      </c>
       <c r="F127" s="2" t="s">
-        <v>263</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -4067,8 +4439,11 @@
       <c r="B128" t="s">
         <v>128</v>
       </c>
+      <c r="C128" t="s">
+        <v>265</v>
+      </c>
       <c r="F128" s="2" t="s">
-        <v>263</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -4078,8 +4453,17 @@
       <c r="B129" t="s">
         <v>129</v>
       </c>
+      <c r="C129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129" t="s">
+        <v>273</v>
+      </c>
+      <c r="E129" t="s">
+        <v>399</v>
+      </c>
       <c r="F129" s="2" t="s">
-        <v>263</v>
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -4089,8 +4473,17 @@
       <c r="B130" t="s">
         <v>130</v>
       </c>
+      <c r="C130" t="s">
+        <v>265</v>
+      </c>
+      <c r="D130" t="s">
+        <v>273</v>
+      </c>
+      <c r="E130" t="s">
+        <v>401</v>
+      </c>
       <c r="F130" s="2" t="s">
-        <v>263</v>
+        <v>400</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -4100,8 +4493,11 @@
       <c r="B131" t="s">
         <v>131</v>
       </c>
+      <c r="C131" t="s">
+        <v>273</v>
+      </c>
       <c r="F131" s="2" t="s">
-        <v>263</v>
+        <v>402</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="42">
@@ -4111,19 +4507,25 @@
       <c r="B132" t="s">
         <v>132</v>
       </c>
+      <c r="C132" t="s">
+        <v>265</v>
+      </c>
       <c r="F132" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="42">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="63">
       <c r="A133">
         <v>4688</v>
       </c>
       <c r="B133" t="s">
         <v>133</v>
       </c>
+      <c r="C133" t="s">
+        <v>265</v>
+      </c>
       <c r="F133" s="2" t="s">
-        <v>263</v>
+        <v>404</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -4133,8 +4535,11 @@
       <c r="B134" t="s">
         <v>134</v>
       </c>
+      <c r="C134" t="s">
+        <v>273</v>
+      </c>
       <c r="F134" s="2" t="s">
-        <v>263</v>
+        <v>405</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -4144,8 +4549,11 @@
       <c r="B135" t="s">
         <v>135</v>
       </c>
+      <c r="C135" t="s">
+        <v>265</v>
+      </c>
       <c r="F135" s="2" t="s">
-        <v>263</v>
+        <v>406</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -4155,8 +4563,11 @@
       <c r="B136" t="s">
         <v>136</v>
       </c>
+      <c r="C136" t="s">
+        <v>265</v>
+      </c>
       <c r="F136" s="2" t="s">
-        <v>263</v>
+        <v>407</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -4166,8 +4577,11 @@
       <c r="B137" t="s">
         <v>137</v>
       </c>
+      <c r="C137" t="s">
+        <v>265</v>
+      </c>
       <c r="F137" s="2" t="s">
-        <v>263</v>
+        <v>408</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -4177,8 +4591,11 @@
       <c r="B138" t="s">
         <v>138</v>
       </c>
+      <c r="C138" t="s">
+        <v>268</v>
+      </c>
       <c r="F138" s="2" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -4188,8 +4605,11 @@
       <c r="B139" t="s">
         <v>139</v>
       </c>
+      <c r="C139" t="s">
+        <v>265</v>
+      </c>
       <c r="F139" s="2" t="s">
-        <v>263</v>
+        <v>410</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -4199,8 +4619,11 @@
       <c r="B140" t="s">
         <v>140</v>
       </c>
+      <c r="C140" t="s">
+        <v>268</v>
+      </c>
       <c r="F140" s="2" t="s">
-        <v>263</v>
+        <v>411</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -4210,8 +4633,11 @@
       <c r="B141" t="s">
         <v>141</v>
       </c>
+      <c r="C141" t="s">
+        <v>273</v>
+      </c>
       <c r="F141" s="2" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -4221,8 +4647,11 @@
       <c r="B142" t="s">
         <v>142</v>
       </c>
+      <c r="C142" t="s">
+        <v>265</v>
+      </c>
       <c r="F142" s="2" t="s">
-        <v>263</v>
+        <v>413</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -4232,8 +4661,11 @@
       <c r="B143" t="s">
         <v>143</v>
       </c>
+      <c r="C143" t="s">
+        <v>265</v>
+      </c>
       <c r="F143" s="2" t="s">
-        <v>263</v>
+        <v>414</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -4243,8 +4675,11 @@
       <c r="B144" t="s">
         <v>144</v>
       </c>
+      <c r="C144" t="s">
+        <v>265</v>
+      </c>
       <c r="F144" s="2" t="s">
-        <v>263</v>
+        <v>415</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -4254,8 +4689,11 @@
       <c r="B145" t="s">
         <v>145</v>
       </c>
+      <c r="C145" t="s">
+        <v>268</v>
+      </c>
       <c r="F145" s="2" t="s">
-        <v>263</v>
+        <v>416</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="42">
@@ -4265,8 +4703,11 @@
       <c r="B146" t="s">
         <v>146</v>
       </c>
+      <c r="C146" t="s">
+        <v>265</v>
+      </c>
       <c r="F146" s="2" t="s">
-        <v>263</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -4276,8 +4717,11 @@
       <c r="B147" t="s">
         <v>147</v>
       </c>
+      <c r="C147" t="s">
+        <v>265</v>
+      </c>
       <c r="F147" s="2" t="s">
-        <v>263</v>
+        <v>418</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="42">
@@ -4287,8 +4731,11 @@
       <c r="B148" t="s">
         <v>148</v>
       </c>
+      <c r="C148" t="s">
+        <v>265</v>
+      </c>
       <c r="F148" s="2" t="s">
-        <v>263</v>
+        <v>419</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="42">
@@ -4298,8 +4745,11 @@
       <c r="B149" t="s">
         <v>149</v>
       </c>
+      <c r="C149" t="s">
+        <v>265</v>
+      </c>
       <c r="F149" s="2" t="s">
-        <v>263</v>
+        <v>420</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -4309,8 +4759,11 @@
       <c r="B150" t="s">
         <v>150</v>
       </c>
+      <c r="C150" t="s">
+        <v>265</v>
+      </c>
       <c r="F150" s="2" t="s">
-        <v>263</v>
+        <v>421</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">

--- a/satd_issue_dataset_Python_tsuji.xlsx
+++ b/satd_issue_dataset_Python_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19597C4-62CB-5F46-A3D7-797E61EDEF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A57D024-2060-CE43-ADC3-8C23DDF0C777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="474">
   <si>
     <t>Issue</t>
   </si>
@@ -1653,6 +1653,267 @@
   <si>
     <t>[Content]RuntimeError と CondaRuntimeError のインスタンスを削除
 [Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロセスの起動時間を改善するために CLI インポートをクリーンアップする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]4.4 リリースの最終的なクリーンアップを行います
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MatchSpec の features/track_features サポートを追加
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シンボリックリンクされたファイルの rm_rf のテストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]問題: conda-build が一時ファイルをクリーンアップしない
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]環境が存在しない場合、'conda env remove -n name' はローカル フォルダー 'name' を削除
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]conda env create を強制終了できません
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]--help CLI フラグを優先して「conda help」を非推奨にします
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダウングレード統合テストを書く
+[Class]テストの追加</t>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SimpleITK のインストール時の MemoryError
+[Class]エラーの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新規インストール後に conda を更新中にエラーが発生
+[Class]エラーの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Conda(py2) ユーザー名に非ASCII文字を含むパス(ASCII文字のみ)へのインストール
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]適切な OO 継承を使用して activate.py をクリーンアップする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]conda activate のヘルプがありません
+[Class]ヘルプの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コードベースから default_python オプションを削除し、Navigator の使用法を更新
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エラー報告が失敗する可能性があります: str(CondaError) が文字列テンプレートでユーザー データを使用することがある
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不足しているファイルから環境を作成しようとすると誤解を招くエラーが発生する 
+[Class]エラーの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]デフォルトの default_channels は、subdir ではなく sys.platform に基づいて設定される
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「conda info --envs」を高速化する方法を見てください
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cygwinのconda 4.4でのキャリッジリターンエラー
+[Class]エラーの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]conda 4.3 ではcore/package_cache.py でベース名の使用法を確認します
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]resolve.py から dist を削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マウントされたホームが単体テストと競合する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CONDA_SUBDIR=win-32/64 は、「デフォルト」で msys2 チャネルを自動的に考慮しません
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]4.7を使用して「.conda」で終わる名前のパッケージをインストールできません
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース ノートと変更ログをマージする
+[Class]ドキュメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カスタム ベンダー ソリューションをベンダー パッケージに置き換える
+[Class]パッケージの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]salt-master が毎分 [エラー] アドレス解決中の例外: [Errno 2] ホスト名ルックアップの失敗
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]etcd api v3 をサポート
+[Class]APIのサポート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]fileserver_limit_traversal - 古い設定を削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ローダーをサブモジュールにリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]salt.utils.zeromq.ZMQDefaultLoop の使用をやめる
+[Class]不要なツールの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アーカイブ 3000.x on 2021-08-31
+[Class]リリース</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ベア/ブロード例外処理をクリーンアップ
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]zeromq および tcp トランスポートからシングルトンを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シリコンの非推奨機能を削除
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]salt.payload.Serial の廃止
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]utils/etcd_util.py - 機能テストと v3 の互換性を確認する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]modules/etcd_mod.py &amp; states/etcd_mod.py - 機能テストと v3 互換性の確保
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content] returners/etcd_return.py - 機能テストと v3 の互換性を確保する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pillow/etcd_pillar.py - 機能テストと v3 の互換性を確認する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sdb/etcd_db.py - 機能テストと v3 の互換性を確認する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]キャッシュ API 機能テスト
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト スイートにソルト デーモン テストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいマスターと古いミニオンの互換性テストをテスト スイートに追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]minionswarm テストをテスト スイートに追加します
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バージョン レポート テストをテスト スイートに追加します
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト スイートに multimaster-pki と署名検証テストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マルチマスター テストをテスト スイートに追加します
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マルチマスター フェイルオーバー テストをテスト スイートに追加
+[Class]テストの追加</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2620,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4766,15 +5027,18 @@
         <v>421</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="42">
+    <row r="151" spans="1:6" ht="63">
       <c r="A151">
         <v>5113</v>
       </c>
       <c r="B151" t="s">
         <v>151</v>
       </c>
+      <c r="C151" t="s">
+        <v>265</v>
+      </c>
       <c r="F151" s="2" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -4784,8 +5048,11 @@
       <c r="B152" t="s">
         <v>152</v>
       </c>
+      <c r="C152" t="s">
+        <v>265</v>
+      </c>
       <c r="F152" s="2" t="s">
-        <v>263</v>
+        <v>423</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -4795,8 +5062,11 @@
       <c r="B153" t="s">
         <v>153</v>
       </c>
+      <c r="C153" t="s">
+        <v>265</v>
+      </c>
       <c r="F153" s="2" t="s">
-        <v>263</v>
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -4806,8 +5076,11 @@
       <c r="B154" t="s">
         <v>154</v>
       </c>
+      <c r="C154" t="s">
+        <v>273</v>
+      </c>
       <c r="F154" s="2" t="s">
-        <v>263</v>
+        <v>425</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="42">
@@ -4817,19 +5090,25 @@
       <c r="B155" t="s">
         <v>155</v>
       </c>
+      <c r="C155" t="s">
+        <v>358</v>
+      </c>
       <c r="F155" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="42">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="63">
       <c r="A156">
         <v>5867</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
       </c>
+      <c r="C156" t="s">
+        <v>265</v>
+      </c>
       <c r="F156" s="2" t="s">
-        <v>263</v>
+        <v>427</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="42">
@@ -4839,8 +5118,11 @@
       <c r="B157" t="s">
         <v>157</v>
       </c>
+      <c r="C157" t="s">
+        <v>265</v>
+      </c>
       <c r="F157" s="2" t="s">
-        <v>263</v>
+        <v>428</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="42">
@@ -4850,8 +5132,11 @@
       <c r="B158" t="s">
         <v>158</v>
       </c>
+      <c r="C158" t="s">
+        <v>265</v>
+      </c>
       <c r="F158" s="2" t="s">
-        <v>263</v>
+        <v>429</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="42">
@@ -4861,8 +5146,11 @@
       <c r="B159" t="s">
         <v>159</v>
       </c>
+      <c r="C159" t="s">
+        <v>273</v>
+      </c>
       <c r="F159" s="2" t="s">
-        <v>263</v>
+        <v>430</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -4872,8 +5160,11 @@
       <c r="B160" t="s">
         <v>160</v>
       </c>
+      <c r="C160" t="s">
+        <v>265</v>
+      </c>
       <c r="F160" s="2" t="s">
-        <v>263</v>
+        <v>431</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="42">
@@ -4883,19 +5174,25 @@
       <c r="B161" t="s">
         <v>161</v>
       </c>
+      <c r="C161" t="s">
+        <v>265</v>
+      </c>
       <c r="F161" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="42">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="63">
       <c r="A162">
         <v>6401</v>
       </c>
       <c r="B162" t="s">
         <v>162</v>
       </c>
+      <c r="C162" t="s">
+        <v>265</v>
+      </c>
       <c r="F162" s="2" t="s">
-        <v>263</v>
+        <v>433</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -4905,8 +5202,11 @@
       <c r="B163" t="s">
         <v>163</v>
       </c>
+      <c r="C163" t="s">
+        <v>265</v>
+      </c>
       <c r="F163" s="2" t="s">
-        <v>263</v>
+        <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -4916,52 +5216,67 @@
       <c r="B164" t="s">
         <v>164</v>
       </c>
+      <c r="C164" t="s">
+        <v>436</v>
+      </c>
       <c r="F164" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="42">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="63">
       <c r="A165">
         <v>6690</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
       </c>
+      <c r="C165" t="s">
+        <v>265</v>
+      </c>
       <c r="F165" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="42">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="63">
       <c r="A166">
         <v>6759</v>
       </c>
       <c r="B166" t="s">
         <v>166</v>
       </c>
+      <c r="C166" t="s">
+        <v>265</v>
+      </c>
       <c r="F166" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="42">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="63">
       <c r="A167">
         <v>6781</v>
       </c>
       <c r="B167" t="s">
         <v>167</v>
       </c>
+      <c r="C167" t="s">
+        <v>265</v>
+      </c>
       <c r="F167" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="42">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="63">
       <c r="A168">
         <v>6874</v>
       </c>
       <c r="B168" t="s">
         <v>168</v>
       </c>
+      <c r="C168" t="s">
+        <v>265</v>
+      </c>
       <c r="F168" s="2" t="s">
-        <v>263</v>
+        <v>440</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="42">
@@ -4971,8 +5286,11 @@
       <c r="B169" t="s">
         <v>169</v>
       </c>
+      <c r="C169" t="s">
+        <v>343</v>
+      </c>
       <c r="F169" s="2" t="s">
-        <v>263</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="42">
@@ -4982,8 +5300,11 @@
       <c r="B170" t="s">
         <v>170</v>
       </c>
+      <c r="C170" t="s">
+        <v>265</v>
+      </c>
       <c r="F170" s="2" t="s">
-        <v>263</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -4993,8 +5314,11 @@
       <c r="B171" t="s">
         <v>171</v>
       </c>
+      <c r="C171" t="s">
+        <v>265</v>
+      </c>
       <c r="F171" s="2" t="s">
-        <v>263</v>
+        <v>443</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -5004,8 +5328,11 @@
       <c r="B172" t="s">
         <v>172</v>
       </c>
+      <c r="C172" t="s">
+        <v>265</v>
+      </c>
       <c r="F172" s="2" t="s">
-        <v>263</v>
+        <v>444</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -5015,30 +5342,39 @@
       <c r="B173" t="s">
         <v>173</v>
       </c>
+      <c r="C173" t="s">
+        <v>273</v>
+      </c>
       <c r="F173" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="42">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="63">
       <c r="A174">
         <v>7790</v>
       </c>
       <c r="B174" t="s">
         <v>174</v>
       </c>
+      <c r="C174" t="s">
+        <v>265</v>
+      </c>
       <c r="F174" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="42">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="63">
       <c r="A175">
         <v>8987</v>
       </c>
       <c r="B175" t="s">
         <v>175</v>
       </c>
+      <c r="C175" t="s">
+        <v>265</v>
+      </c>
       <c r="F175" s="2" t="s">
-        <v>263</v>
+        <v>447</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="42">
@@ -5048,8 +5384,11 @@
       <c r="B176" t="s">
         <v>176</v>
       </c>
+      <c r="C176" t="s">
+        <v>436</v>
+      </c>
       <c r="F176" s="2" t="s">
-        <v>263</v>
+        <v>448</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -5059,19 +5398,25 @@
       <c r="B177" t="s">
         <v>177</v>
       </c>
+      <c r="C177" t="s">
+        <v>268</v>
+      </c>
       <c r="F177" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="42">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="63">
       <c r="A178">
         <v>60197</v>
       </c>
       <c r="B178" t="s">
         <v>178</v>
       </c>
+      <c r="C178" t="s">
+        <v>265</v>
+      </c>
       <c r="F178" s="2" t="s">
-        <v>263</v>
+        <v>450</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -5081,8 +5426,11 @@
       <c r="B179" t="s">
         <v>179</v>
       </c>
+      <c r="C179" t="s">
+        <v>268</v>
+      </c>
       <c r="F179" s="2" t="s">
-        <v>263</v>
+        <v>451</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -5092,8 +5440,11 @@
       <c r="B180" t="s">
         <v>180</v>
       </c>
+      <c r="C180" t="s">
+        <v>265</v>
+      </c>
       <c r="F180" s="2" t="s">
-        <v>263</v>
+        <v>452</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -5103,8 +5454,11 @@
       <c r="B181" t="s">
         <v>181</v>
       </c>
+      <c r="C181" t="s">
+        <v>265</v>
+      </c>
       <c r="F181" s="2" t="s">
-        <v>263</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -5114,8 +5468,11 @@
       <c r="B182" t="s">
         <v>182</v>
       </c>
+      <c r="C182" t="s">
+        <v>268</v>
+      </c>
       <c r="F182" s="2" t="s">
-        <v>263</v>
+        <v>454</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -5125,8 +5482,11 @@
       <c r="B183" t="s">
         <v>183</v>
       </c>
+      <c r="C183" t="s">
+        <v>456</v>
+      </c>
       <c r="F183" s="2" t="s">
-        <v>263</v>
+        <v>455</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -5136,8 +5496,11 @@
       <c r="B184" t="s">
         <v>184</v>
       </c>
+      <c r="C184" t="s">
+        <v>265</v>
+      </c>
       <c r="F184" s="2" t="s">
-        <v>263</v>
+        <v>457</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -5147,8 +5510,11 @@
       <c r="B185" t="s">
         <v>185</v>
       </c>
+      <c r="C185" t="s">
+        <v>265</v>
+      </c>
       <c r="F185" s="2" t="s">
-        <v>263</v>
+        <v>458</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42">
@@ -5158,8 +5524,11 @@
       <c r="B186" t="s">
         <v>186</v>
       </c>
+      <c r="C186" t="s">
+        <v>268</v>
+      </c>
       <c r="F186" s="2" t="s">
-        <v>263</v>
+        <v>459</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42">
@@ -5169,8 +5538,11 @@
       <c r="B187" t="s">
         <v>187</v>
       </c>
+      <c r="C187" t="s">
+        <v>265</v>
+      </c>
       <c r="F187" s="2" t="s">
-        <v>263</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -5180,19 +5552,25 @@
       <c r="B188" t="s">
         <v>188</v>
       </c>
+      <c r="C188" t="s">
+        <v>273</v>
+      </c>
       <c r="F188" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="42">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="63">
       <c r="A189">
         <v>61033</v>
       </c>
       <c r="B189" t="s">
         <v>189</v>
       </c>
+      <c r="C189" t="s">
+        <v>273</v>
+      </c>
       <c r="F189" s="2" t="s">
-        <v>263</v>
+        <v>462</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -5202,8 +5580,11 @@
       <c r="B190" t="s">
         <v>190</v>
       </c>
+      <c r="C190" t="s">
+        <v>273</v>
+      </c>
       <c r="F190" s="2" t="s">
-        <v>263</v>
+        <v>463</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -5213,8 +5594,11 @@
       <c r="B191" t="s">
         <v>191</v>
       </c>
+      <c r="C191" t="s">
+        <v>273</v>
+      </c>
       <c r="F191" s="2" t="s">
-        <v>263</v>
+        <v>464</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -5224,8 +5608,11 @@
       <c r="B192" t="s">
         <v>192</v>
       </c>
+      <c r="C192" t="s">
+        <v>273</v>
+      </c>
       <c r="F192" s="2" t="s">
-        <v>263</v>
+        <v>465</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -5235,8 +5622,11 @@
       <c r="B193" t="s">
         <v>193</v>
       </c>
+      <c r="C193" t="s">
+        <v>273</v>
+      </c>
       <c r="F193" s="2" t="s">
-        <v>263</v>
+        <v>466</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -5246,8 +5636,11 @@
       <c r="B194" t="s">
         <v>194</v>
       </c>
+      <c r="C194" t="s">
+        <v>273</v>
+      </c>
       <c r="F194" s="2" t="s">
-        <v>263</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -5257,8 +5650,11 @@
       <c r="B195" t="s">
         <v>195</v>
       </c>
+      <c r="C195" t="s">
+        <v>273</v>
+      </c>
       <c r="F195" s="2" t="s">
-        <v>263</v>
+        <v>468</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -5268,8 +5664,11 @@
       <c r="B196" t="s">
         <v>196</v>
       </c>
+      <c r="C196" t="s">
+        <v>273</v>
+      </c>
       <c r="F196" s="2" t="s">
-        <v>263</v>
+        <v>469</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -5279,8 +5678,11 @@
       <c r="B197" t="s">
         <v>197</v>
       </c>
+      <c r="C197" t="s">
+        <v>273</v>
+      </c>
       <c r="F197" s="2" t="s">
-        <v>263</v>
+        <v>470</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -5290,8 +5692,11 @@
       <c r="B198" t="s">
         <v>198</v>
       </c>
+      <c r="C198" t="s">
+        <v>273</v>
+      </c>
       <c r="F198" s="2" t="s">
-        <v>263</v>
+        <v>471</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42">
@@ -5301,8 +5706,11 @@
       <c r="B199" t="s">
         <v>199</v>
       </c>
+      <c r="C199" t="s">
+        <v>273</v>
+      </c>
       <c r="F199" s="2" t="s">
-        <v>263</v>
+        <v>472</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -5312,8 +5720,11 @@
       <c r="B200" t="s">
         <v>200</v>
       </c>
+      <c r="C200" t="s">
+        <v>273</v>
+      </c>
       <c r="F200" s="2" t="s">
-        <v>263</v>
+        <v>473</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">

--- a/satd_issue_dataset_Python_tsuji.xlsx
+++ b/satd_issue_dataset_Python_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A57D024-2060-CE43-ADC3-8C23DDF0C777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F464A92-EFEC-784E-9D81-8C2DE0420E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="494">
   <si>
     <t>Issue</t>
   </si>
@@ -1914,6 +1914,106 @@
   <si>
     <t>[Content]マルチマスター フェイルオーバー テストをテスト スイートに追加
 [Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Linux 以外のプラットフォームで status.meminfo が機能しないことを確認する
+[Class]プラットフォームへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トランスポートをよりプラグ可能にする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]get_event の transport 引数を削除
+[Class]不要な引数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]dagstermill 一時ファイルの作成が祝福されない
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]k8 関連のエラー処理のリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]celery-k8s-integration-test-suite/test_integration.py::test_execute_on_celery_k8s フレーキー
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]実行状態のロジックを統合する
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]run_config の「ストレージ」エントリを削除します
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タプル型チェックは可変長型と非可変型型を混在させ、表現できない制約につながる
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]output_notebook パラメーターを使用したファイル マネージャーのテストが必要
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]D5504 および D5505 ポスト デモを元に戻すまたは正規化する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定なテスト: dagster_celery_tests/test_cli.py::test_start_worker_config_from_yaml
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aiohttp で dep 要件が緩和された場合、chardet の固定を解除します
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]イベント ログの get_cursor_by_id API が非 sqlite データベースで通知どおりに動作しない
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sqlalchemy &gt;= 1.4.0 と互換性がある場合、大きな期待のピンを外す
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]dagit のパイプライン スナップショットが古くなっているときに実行を開始しようとしたときのエラー メッセージが役に立たない
+[Class]エラーメッセージの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]jinja2 のピンを外す / フラスコ / werkzeug
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]dagster-airflow で振り子のピンを外す
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]例のテストが失敗する原因となる dbt バージョンの固定を解除します
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]dagster-k8s &lt;=&gt; dagster-celery-k8s の移行を簡素化
+[Class]コードの移行</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2881,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5727,15 +5827,18 @@
         <v>473</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="42">
+    <row r="201" spans="1:6" ht="63">
       <c r="A201">
         <v>61128</v>
       </c>
       <c r="B201" t="s">
         <v>201</v>
       </c>
+      <c r="C201" t="s">
+        <v>268</v>
+      </c>
       <c r="F201" s="2" t="s">
-        <v>263</v>
+        <v>474</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="42">
@@ -5745,8 +5848,11 @@
       <c r="B202" t="s">
         <v>202</v>
       </c>
+      <c r="C202" t="s">
+        <v>265</v>
+      </c>
       <c r="F202" s="2" t="s">
-        <v>263</v>
+        <v>475</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="42">
@@ -5756,8 +5862,11 @@
       <c r="B203" t="s">
         <v>203</v>
       </c>
+      <c r="C203" t="s">
+        <v>265</v>
+      </c>
       <c r="F203" s="2" t="s">
-        <v>263</v>
+        <v>476</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="42">
@@ -5767,8 +5876,11 @@
       <c r="B204" t="s">
         <v>204</v>
       </c>
+      <c r="C204" t="s">
+        <v>265</v>
+      </c>
       <c r="F204" s="2" t="s">
-        <v>263</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="42">
@@ -5778,19 +5890,25 @@
       <c r="B205" t="s">
         <v>205</v>
       </c>
+      <c r="C205" t="s">
+        <v>265</v>
+      </c>
       <c r="F205" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="42">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="63">
       <c r="A206">
         <v>3158</v>
       </c>
       <c r="B206" t="s">
         <v>206</v>
       </c>
+      <c r="C206" t="s">
+        <v>273</v>
+      </c>
       <c r="F206" s="2" t="s">
-        <v>263</v>
+        <v>479</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="42">
@@ -5800,8 +5918,11 @@
       <c r="B207" t="s">
         <v>207</v>
       </c>
+      <c r="C207" t="s">
+        <v>265</v>
+      </c>
       <c r="F207" s="2" t="s">
-        <v>263</v>
+        <v>480</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="42">
@@ -5811,30 +5932,39 @@
       <c r="B208" t="s">
         <v>208</v>
       </c>
+      <c r="C208" t="s">
+        <v>265</v>
+      </c>
       <c r="F208" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="42">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="63">
       <c r="A209">
         <v>3299</v>
       </c>
       <c r="B209" t="s">
         <v>209</v>
       </c>
+      <c r="C209" t="s">
+        <v>265</v>
+      </c>
       <c r="F209" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="42">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="63">
       <c r="A210">
         <v>3374</v>
       </c>
       <c r="B210" t="s">
         <v>210</v>
       </c>
+      <c r="C210" t="s">
+        <v>273</v>
+      </c>
       <c r="F210" s="2" t="s">
-        <v>263</v>
+        <v>483</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="42">
@@ -5844,19 +5974,25 @@
       <c r="B211" t="s">
         <v>211</v>
       </c>
+      <c r="C211" t="s">
+        <v>265</v>
+      </c>
       <c r="F211" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="42">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="63">
       <c r="A212">
         <v>3494</v>
       </c>
       <c r="B212" t="s">
         <v>212</v>
       </c>
+      <c r="C212" t="s">
+        <v>273</v>
+      </c>
       <c r="F212" s="2" t="s">
-        <v>263</v>
+        <v>485</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="42">
@@ -5866,19 +6002,25 @@
       <c r="B213" t="s">
         <v>213</v>
       </c>
+      <c r="C213" t="s">
+        <v>268</v>
+      </c>
       <c r="F213" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="42">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="63">
       <c r="A214">
         <v>3621</v>
       </c>
       <c r="B214" t="s">
         <v>214</v>
       </c>
+      <c r="C214" t="s">
+        <v>265</v>
+      </c>
       <c r="F214" s="2" t="s">
-        <v>263</v>
+        <v>487</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="42">
@@ -5888,19 +6030,25 @@
       <c r="B215" t="s">
         <v>215</v>
       </c>
+      <c r="C215" t="s">
+        <v>265</v>
+      </c>
       <c r="F215" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="42">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="63">
       <c r="A216">
         <v>4063</v>
       </c>
       <c r="B216" t="s">
         <v>216</v>
       </c>
+      <c r="C216" t="s">
+        <v>265</v>
+      </c>
       <c r="F216" s="2" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="42">
@@ -5910,8 +6058,11 @@
       <c r="B217" t="s">
         <v>217</v>
       </c>
+      <c r="C217" t="s">
+        <v>265</v>
+      </c>
       <c r="F217" s="2" t="s">
-        <v>263</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="42">
@@ -5921,8 +6072,11 @@
       <c r="B218" t="s">
         <v>218</v>
       </c>
+      <c r="C218" t="s">
+        <v>265</v>
+      </c>
       <c r="F218" s="2" t="s">
-        <v>263</v>
+        <v>491</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="42">
@@ -5932,8 +6086,11 @@
       <c r="B219" t="s">
         <v>219</v>
       </c>
+      <c r="C219" t="s">
+        <v>273</v>
+      </c>
       <c r="F219" s="2" t="s">
-        <v>263</v>
+        <v>492</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="42">
@@ -5943,8 +6100,11 @@
       <c r="B220" t="s">
         <v>220</v>
       </c>
+      <c r="C220" t="s">
+        <v>265</v>
+      </c>
       <c r="F220" s="2" t="s">
-        <v>263</v>
+        <v>493</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="42">
